--- a/table/table.xlsx
+++ b/table/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\황보겸\kyrbs_asthma\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49C26FE-8D24-4B6C-B89D-2A93609631ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE90B132-EB4C-468E-A5F2-32E19DAF5540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Baseline" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2897" uniqueCount="2386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3325" uniqueCount="2811">
   <si>
     <t>Underweight</t>
   </si>
@@ -7408,6 +7408,1284 @@
   </si>
   <si>
     <t>7.68 (7.5-7.85)</t>
+  </si>
+  <si>
+    <t>8.86 (8.7-9.03)</t>
+  </si>
+  <si>
+    <t>9.8 (9.57-10.03)</t>
+  </si>
+  <si>
+    <t>7.91 (7.7-8.12)</t>
+  </si>
+  <si>
+    <t>9.48 (9.24-9.71)</t>
+  </si>
+  <si>
+    <t>8.28 (8.05-8.5)</t>
+  </si>
+  <si>
+    <t>8.76 (8.54-8.97)</t>
+  </si>
+  <si>
+    <t>8.95 (8.71-9.19)</t>
+  </si>
+  <si>
+    <t>9.14 (8.81-9.47)</t>
+  </si>
+  <si>
+    <t>8.44 (8.22-8.67)</t>
+  </si>
+  <si>
+    <t>9.32 (9.03-9.62)</t>
+  </si>
+  <si>
+    <t>8.84 (8.67-9)</t>
+  </si>
+  <si>
+    <t>10.5 (8.94-12.06)</t>
+  </si>
+  <si>
+    <t>8.77 (7.78-9.77)</t>
+  </si>
+  <si>
+    <t>11.93 (8.66-15.2)</t>
+  </si>
+  <si>
+    <t>7.68 (7.33-8.03)</t>
+  </si>
+  <si>
+    <t>8.28 (8.04-8.53)</t>
+  </si>
+  <si>
+    <t>9.88 (9.62-10.14)</t>
+  </si>
+  <si>
+    <t>8.38 (8.09-8.66)</t>
+  </si>
+  <si>
+    <t>8.82 (8.54-9.1)</t>
+  </si>
+  <si>
+    <t>9.26 (9-9.52)</t>
+  </si>
+  <si>
+    <t>8.9 (8.65-9.16)</t>
+  </si>
+  <si>
+    <t>8.81 (8.6-9.01)</t>
+  </si>
+  <si>
+    <t>9.66 (8.7-10.63)</t>
+  </si>
+  <si>
+    <t>9.91 (9.43-10.38)</t>
+  </si>
+  <si>
+    <t>8.72 (8.56-8.89)</t>
+  </si>
+  <si>
+    <t>8.82 (8.65-8.99)</t>
+  </si>
+  <si>
+    <t>9.95 (9.7-10.2)</t>
+  </si>
+  <si>
+    <t>7.7 (7.49-7.92)</t>
+  </si>
+  <si>
+    <t>9.49 (9.25-9.73)</t>
+  </si>
+  <si>
+    <t>8.2 (7.97-8.44)</t>
+  </si>
+  <si>
+    <t>8.77 (8.53-9.01)</t>
+  </si>
+  <si>
+    <t>8.86 (8.62-9.09)</t>
+  </si>
+  <si>
+    <t>8.96 (8.59-9.33)</t>
+  </si>
+  <si>
+    <t>8.42 (8.19-8.65)</t>
+  </si>
+  <si>
+    <t>9.31 (9.03-9.59)</t>
+  </si>
+  <si>
+    <t>8.81 (8.64-8.98)</t>
+  </si>
+  <si>
+    <t>9.62 (7.86-11.38)</t>
+  </si>
+  <si>
+    <t>8.8 (7.85-9.75)</t>
+  </si>
+  <si>
+    <t>9.63 (6.96-12.3)</t>
+  </si>
+  <si>
+    <t>7.97 (7.64-8.29)</t>
+  </si>
+  <si>
+    <t>8.56 (8.32-8.8)</t>
+  </si>
+  <si>
+    <t>9.54 (9.27-9.8)</t>
+  </si>
+  <si>
+    <t>8.54 (8.23-8.85)</t>
+  </si>
+  <si>
+    <t>8.77 (8.49-9.04)</t>
+  </si>
+  <si>
+    <t>9.03 (8.78-9.29)</t>
+  </si>
+  <si>
+    <t>8.8 (8.51-9.09)</t>
+  </si>
+  <si>
+    <t>8.75 (8.56-8.95)</t>
+  </si>
+  <si>
+    <t>10.7 (9.72-11.68)</t>
+  </si>
+  <si>
+    <t>9.72 (9.18-10.27)</t>
+  </si>
+  <si>
+    <t>8.73 (8.56-8.91)</t>
+  </si>
+  <si>
+    <t>8.07 (7.93-8.22)</t>
+  </si>
+  <si>
+    <t>9.1 (8.88-9.32)</t>
+  </si>
+  <si>
+    <t>7.1 (6.92-7.28)</t>
+  </si>
+  <si>
+    <t>8.15 (7.93-8.37)</t>
+  </si>
+  <si>
+    <t>8 (7.81-8.2)</t>
+  </si>
+  <si>
+    <t>7.93 (7.72-8.13)</t>
+  </si>
+  <si>
+    <t>8.18 (7.98-8.39)</t>
+  </si>
+  <si>
+    <t>9.02 (8.61-9.42)</t>
+  </si>
+  <si>
+    <t>7.61 (7.4-7.81)</t>
+  </si>
+  <si>
+    <t>8.32 (8.09-8.55)</t>
+  </si>
+  <si>
+    <t>8.06 (7.91-8.21)</t>
+  </si>
+  <si>
+    <t>8.34 (6.7-9.98)</t>
+  </si>
+  <si>
+    <t>8.3 (7.59-9.02)</t>
+  </si>
+  <si>
+    <t>10.5 (7.5-13.49)</t>
+  </si>
+  <si>
+    <t>7.2 (6.9-7.49)</t>
+  </si>
+  <si>
+    <t>7.66 (7.45-7.86)</t>
+  </si>
+  <si>
+    <t>8.98 (8.74-9.22)</t>
+  </si>
+  <si>
+    <t>7.82 (7.54-8.1)</t>
+  </si>
+  <si>
+    <t>7.59 (7.35-7.82)</t>
+  </si>
+  <si>
+    <t>8.55 (8.34-8.77)</t>
+  </si>
+  <si>
+    <t>8.2 (7.9-8.5)</t>
+  </si>
+  <si>
+    <t>7.97 (7.81-8.14)</t>
+  </si>
+  <si>
+    <t>9.31 (8.56-10.06)</t>
+  </si>
+  <si>
+    <t>9.48 (8.85-10.1)</t>
+  </si>
+  <si>
+    <t>7.98 (7.83-8.13)</t>
+  </si>
+  <si>
+    <t>5.89 (5.63-6.16)</t>
+  </si>
+  <si>
+    <t>6.56 (6.17-6.95)</t>
+  </si>
+  <si>
+    <t>5.29 (4.94-5.65)</t>
+  </si>
+  <si>
+    <t>5.11 (4.77-5.44)</t>
+  </si>
+  <si>
+    <t>6.69 (6.28-7.1)</t>
+  </si>
+  <si>
+    <t>5.91 (5.52-6.31)</t>
+  </si>
+  <si>
+    <t>5.88 (5.52-6.23)</t>
+  </si>
+  <si>
+    <t>6.96 (6.15-7.78)</t>
+  </si>
+  <si>
+    <t>5.53 (5.18-5.88)</t>
+  </si>
+  <si>
+    <t>6.02 (5.59-6.44)</t>
+  </si>
+  <si>
+    <t>5.84 (5.58-6.11)</t>
+  </si>
+  <si>
+    <t>8.9 (4.1-13.71)</t>
+  </si>
+  <si>
+    <t>7.05 (5.7-8.39)</t>
+  </si>
+  <si>
+    <t>7.06 (1.59-12.54)</t>
+  </si>
+  <si>
+    <t>4.6 (4.08-5.12)</t>
+  </si>
+  <si>
+    <t>5.89 (5.52-6.25)</t>
+  </si>
+  <si>
+    <t>6.73 (6.27-7.19)</t>
+  </si>
+  <si>
+    <t>5.4 (4.96-5.85)</t>
+  </si>
+  <si>
+    <t>5.71 (5.25-6.16)</t>
+  </si>
+  <si>
+    <t>6.46 (6.02-6.9)</t>
+  </si>
+  <si>
+    <t>5.65 (5.07-6.23)</t>
+  </si>
+  <si>
+    <t>5.87 (5.59-6.16)</t>
+  </si>
+  <si>
+    <t>7.08 (5.89-8.28)</t>
+  </si>
+  <si>
+    <t>7.15 (5.88-8.42)</t>
+  </si>
+  <si>
+    <t>5.84 (5.57-6.11)</t>
+  </si>
+  <si>
+    <t>0 (0-0)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.45 (5.19-5.71)</t>
+  </si>
+  <si>
+    <t>5.92 (5.53-6.31)</t>
+  </si>
+  <si>
+    <t>5.03 (4.7-5.37)</t>
+  </si>
+  <si>
+    <t>5.04 (4.7-5.39)</t>
+  </si>
+  <si>
+    <t>5.89 (5.49-6.29)</t>
+  </si>
+  <si>
+    <t>5.46 (5.08-5.85)</t>
+  </si>
+  <si>
+    <t>5.44 (5.09-5.79)</t>
+  </si>
+  <si>
+    <t>6.5 (5.64-7.35)</t>
+  </si>
+  <si>
+    <t>5.02 (4.67-5.36)</t>
+  </si>
+  <si>
+    <t>5.71 (5.29-6.14)</t>
+  </si>
+  <si>
+    <t>5.46 (5.19-5.73)</t>
+  </si>
+  <si>
+    <t>9.2 (3.99-14.4)</t>
+  </si>
+  <si>
+    <t>4.43 (3.23-5.63)</t>
+  </si>
+  <si>
+    <t>6.58 (1.9-11.27)</t>
+  </si>
+  <si>
+    <t>4.82 (4.25-5.38)</t>
+  </si>
+  <si>
+    <t>5.26 (4.87-5.64)</t>
+  </si>
+  <si>
+    <t>5.98 (5.55-6.4)</t>
+  </si>
+  <si>
+    <t>5.17 (4.63-5.71)</t>
+  </si>
+  <si>
+    <t>5.18 (4.76-5.61)</t>
+  </si>
+  <si>
+    <t>5.78 (5.39-6.16)</t>
+  </si>
+  <si>
+    <t>5.42 (4.81-6.03)</t>
+  </si>
+  <si>
+    <t>5.42 (5.12-5.72)</t>
+  </si>
+  <si>
+    <t>5.98 (4.89-7.08)</t>
+  </si>
+  <si>
+    <t>6.88 (5.43-8.32)</t>
+  </si>
+  <si>
+    <t>5.38 (5.12-5.65)</t>
+  </si>
+  <si>
+    <t>5.33 (5.05-5.6)</t>
+  </si>
+  <si>
+    <t>6.07 (5.66-6.47)</t>
+  </si>
+  <si>
+    <t>4.66 (4.32-5)</t>
+  </si>
+  <si>
+    <t>4.85 (4.48-5.22)</t>
+  </si>
+  <si>
+    <t>5.86 (5.44-6.28)</t>
+  </si>
+  <si>
+    <t>5.18 (4.82-5.53)</t>
+  </si>
+  <si>
+    <t>5.43 (5.03-5.83)</t>
+  </si>
+  <si>
+    <t>6.75 (5.84-7.66)</t>
+  </si>
+  <si>
+    <t>4.77 (4.43-5.12)</t>
+  </si>
+  <si>
+    <t>5.59 (5.16-6.02)</t>
+  </si>
+  <si>
+    <t>5.15 (4.87-5.43)</t>
+  </si>
+  <si>
+    <t>17.85 (10.87-24.83)</t>
+  </si>
+  <si>
+    <t>8.42 (6.91-9.94)</t>
+  </si>
+  <si>
+    <t>11.42 (3.56-19.29)</t>
+  </si>
+  <si>
+    <t>4.97 (4.28-5.66)</t>
+  </si>
+  <si>
+    <t>4.66 (4.29-5.03)</t>
+  </si>
+  <si>
+    <t>6.17 (5.74-6.6)</t>
+  </si>
+  <si>
+    <t>4.67 (4.12-5.22)</t>
+  </si>
+  <si>
+    <t>5 (4.57-5.42)</t>
+  </si>
+  <si>
+    <t>5.86 (5.47-6.25)</t>
+  </si>
+  <si>
+    <t>5.85 (5.2-6.5)</t>
+  </si>
+  <si>
+    <t>5.14 (4.83-5.45)</t>
+  </si>
+  <si>
+    <t>6.6 (5.38-7.82)</t>
+  </si>
+  <si>
+    <t>8.57 (6.97-10.16)</t>
+  </si>
+  <si>
+    <t>5.19 (4.91-5.47)</t>
+  </si>
+  <si>
+    <t>5.04 (4.79-5.29)</t>
+  </si>
+  <si>
+    <t>5.69 (5.3-6.08)</t>
+  </si>
+  <si>
+    <t>4.44 (4.13-4.75)</t>
+  </si>
+  <si>
+    <t>4.39 (4.03-4.75)</t>
+  </si>
+  <si>
+    <t>5.74 (5.39-6.1)</t>
+  </si>
+  <si>
+    <t>4.87 (4.49-5.25)</t>
+  </si>
+  <si>
+    <t>5.17 (4.83-5.5)</t>
+  </si>
+  <si>
+    <t>5.84 (5.05-6.64)</t>
+  </si>
+  <si>
+    <t>4.97 (4.61-5.34)</t>
+  </si>
+  <si>
+    <t>4.91 (4.55-5.28)</t>
+  </si>
+  <si>
+    <t>4.89 (4.63-5.15)</t>
+  </si>
+  <si>
+    <t>11.77 (6.64-16.9)</t>
+  </si>
+  <si>
+    <t>8.23 (6.55-9.9)</t>
+  </si>
+  <si>
+    <t>10.75 (3.78-17.73)</t>
+  </si>
+  <si>
+    <t>4.51 (3.94-5.07)</t>
+  </si>
+  <si>
+    <t>4.63 (4.27-4.98)</t>
+  </si>
+  <si>
+    <t>5.8 (5.36-6.25)</t>
+  </si>
+  <si>
+    <t>4.61 (4.15-5.06)</t>
+  </si>
+  <si>
+    <t>4.81 (4.4-5.23)</t>
+  </si>
+  <si>
+    <t>5.5 (5.1-5.9)</t>
+  </si>
+  <si>
+    <t>5.14 (4.52-5.76)</t>
+  </si>
+  <si>
+    <t>4.87 (4.59-5.14)</t>
+  </si>
+  <si>
+    <t>7.17 (6-8.35)</t>
+  </si>
+  <si>
+    <t>8.2 (6.71-9.68)</t>
+  </si>
+  <si>
+    <t>4.91 (4.66-5.16)</t>
+  </si>
+  <si>
+    <t>4.72 (4.48-4.95)</t>
+  </si>
+  <si>
+    <t>5.17 (4.81-5.52)</t>
+  </si>
+  <si>
+    <t>4.31 (4.01-4.62)</t>
+  </si>
+  <si>
+    <t>4.13 (3.82-4.43)</t>
+  </si>
+  <si>
+    <t>5.35 (4.99-5.71)</t>
+  </si>
+  <si>
+    <t>4.53 (4.18-4.87)</t>
+  </si>
+  <si>
+    <t>4.86 (4.54-5.17)</t>
+  </si>
+  <si>
+    <t>6.27 (5.45-7.1)</t>
+  </si>
+  <si>
+    <t>4.3 (3.98-4.62)</t>
+  </si>
+  <si>
+    <t>4.82 (4.46-5.17)</t>
+  </si>
+  <si>
+    <t>4.57 (4.33-4.81)</t>
+  </si>
+  <si>
+    <t>9.41 (4.52-14.3)</t>
+  </si>
+  <si>
+    <t>7.88 (6.1-9.67)</t>
+  </si>
+  <si>
+    <t>13.62 (7.08-20.17)</t>
+  </si>
+  <si>
+    <t>3.88 (3.37-4.39)</t>
+  </si>
+  <si>
+    <t>4.22 (3.89-4.56)</t>
+  </si>
+  <si>
+    <t>5.54 (5.14-5.93)</t>
+  </si>
+  <si>
+    <t>4.11 (3.64-4.59)</t>
+  </si>
+  <si>
+    <t>4.23 (3.85-4.62)</t>
+  </si>
+  <si>
+    <t>5.28 (4.93-5.64)</t>
+  </si>
+  <si>
+    <t>4.34 (3.8-4.89)</t>
+  </si>
+  <si>
+    <t>4.64 (4.37-4.91)</t>
+  </si>
+  <si>
+    <t>6.58 (5.52-7.64)</t>
+  </si>
+  <si>
+    <t>9.53 (7.76-11.29)</t>
+  </si>
+  <si>
+    <t>4.54 (4.31-4.78)</t>
+  </si>
+  <si>
+    <t>9.19 (8.71-9.68)</t>
+  </si>
+  <si>
+    <t>9.76 (9.16-10.37)</t>
+  </si>
+  <si>
+    <t>7.78 (6.97-8.6)</t>
+  </si>
+  <si>
+    <t>10.35 (9.59-11.12)</t>
+  </si>
+  <si>
+    <t>8.35 (7.72-8.97)</t>
+  </si>
+  <si>
+    <t>9.36 (8.73-9.99)</t>
+  </si>
+  <si>
+    <t>9.01 (8.26-9.76)</t>
+  </si>
+  <si>
+    <t>9.17 (8.33-10.01)</t>
+  </si>
+  <si>
+    <t>8.39 (7.68-9.09)</t>
+  </si>
+  <si>
+    <t>10.48 (9.54-11.42)</t>
+  </si>
+  <si>
+    <t>9.02 (8.54-9.51)</t>
+  </si>
+  <si>
+    <t>12.77 (8.18-17.36)</t>
+  </si>
+  <si>
+    <t>11.8 (8.09-15.52)</t>
+  </si>
+  <si>
+    <t>21.65 (12.95-30.34)</t>
+  </si>
+  <si>
+    <t>8.41 (7.25-9.58)</t>
+  </si>
+  <si>
+    <t>8.85 (8.1-9.6)</t>
+  </si>
+  <si>
+    <t>9.73 (9.03-10.43)</t>
+  </si>
+  <si>
+    <t>9.11 (8.17-10.04)</t>
+  </si>
+  <si>
+    <t>9.02 (8.21-9.84)</t>
+  </si>
+  <si>
+    <t>9.41 (8.68-10.14)</t>
+  </si>
+  <si>
+    <t>8.75 (8.03-9.48)</t>
+  </si>
+  <si>
+    <t>9.29 (8.66-9.93)</t>
+  </si>
+  <si>
+    <t>10.95 (9.23-12.67)</t>
+  </si>
+  <si>
+    <t>9.96 (8.39-11.53)</t>
+  </si>
+  <si>
+    <t>9.08 (8.57-9.59)</t>
+  </si>
+  <si>
+    <t>11.02 (10.56-11.48)</t>
+  </si>
+  <si>
+    <t>11.75 (11.17-12.32)</t>
+  </si>
+  <si>
+    <t>9.34 (8.59-10.09)</t>
+  </si>
+  <si>
+    <t>12.17 (11.44-12.89)</t>
+  </si>
+  <si>
+    <t>10.2 (9.6-10.79)</t>
+  </si>
+  <si>
+    <t>10.9 (10.26-11.54)</t>
+  </si>
+  <si>
+    <t>11.12 (10.46-11.77)</t>
+  </si>
+  <si>
+    <t>11.13 (10.26-12)</t>
+  </si>
+  <si>
+    <t>10.66 (9.97-11.34)</t>
+  </si>
+  <si>
+    <t>11.45 (10.58-12.32)</t>
+  </si>
+  <si>
+    <t>10.96 (10.49-11.42)</t>
+  </si>
+  <si>
+    <t>11.94 (7.48-16.4)</t>
+  </si>
+  <si>
+    <t>13 (10.1-15.89)</t>
+  </si>
+  <si>
+    <t>11.48 (4.22-18.74)</t>
+  </si>
+  <si>
+    <t>10.19 (9.08-11.29)</t>
+  </si>
+  <si>
+    <t>10.27 (9.57-10.98)</t>
+  </si>
+  <si>
+    <t>12 (11.28-12.72)</t>
+  </si>
+  <si>
+    <t>10.02 (9.24-10.81)</t>
+  </si>
+  <si>
+    <t>11.07 (10.28-11.86)</t>
+  </si>
+  <si>
+    <t>11.83 (11.04-12.63)</t>
+  </si>
+  <si>
+    <t>11.2 (10.46-11.95)</t>
+  </si>
+  <si>
+    <t>10.89 (10.28-11.51)</t>
+  </si>
+  <si>
+    <t>11.05 (8.26-13.84)</t>
+  </si>
+  <si>
+    <t>10.79 (10.3-11.27)</t>
+  </si>
+  <si>
+    <t>12.72 (11.36-14.08)</t>
+  </si>
+  <si>
+    <t>10.68 (10.27-11.09)</t>
+  </si>
+  <si>
+    <t>11.67 (11.13-12.21)</t>
+  </si>
+  <si>
+    <t>8.68 (8.05-9.3)</t>
+  </si>
+  <si>
+    <t>11.46 (10.78-12.14)</t>
+  </si>
+  <si>
+    <t>10.2 (9.68-10.72)</t>
+  </si>
+  <si>
+    <t>10.44 (9.84-11.04)</t>
+  </si>
+  <si>
+    <t>10.86 (10.29-11.43)</t>
+  </si>
+  <si>
+    <t>11.66 (10.77-12.55)</t>
+  </si>
+  <si>
+    <t>9.46 (8.9-10.01)</t>
+  </si>
+  <si>
+    <t>11.75 (10.97-12.53)</t>
+  </si>
+  <si>
+    <t>10.71 (10.28-11.13)</t>
+  </si>
+  <si>
+    <t>9.72 (5.25-14.18)</t>
+  </si>
+  <si>
+    <t>9.63 (7.45-11.81)</t>
+  </si>
+  <si>
+    <t>9.52 (8.62-10.42)</t>
+  </si>
+  <si>
+    <t>10.33 (9.72-10.94)</t>
+  </si>
+  <si>
+    <t>11.61 (10.92-12.3)</t>
+  </si>
+  <si>
+    <t>10.3 (9.54-11.06)</t>
+  </si>
+  <si>
+    <t>10.4 (9.68-11.12)</t>
+  </si>
+  <si>
+    <t>11.18 (10.52-11.85)</t>
+  </si>
+  <si>
+    <t>11 (10.23-11.77)</t>
+  </si>
+  <si>
+    <t>10.49 (10-10.98)</t>
+  </si>
+  <si>
+    <t>12.11 (9.26-14.97)</t>
+  </si>
+  <si>
+    <t>10.33 (9.91-10.75)</t>
+  </si>
+  <si>
+    <t>15.4 (7.58-23.23)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.88 (12.37-15.39)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.86 (9.54-10.18)</t>
+  </si>
+  <si>
+    <t>10.41 (10.01-10.8)</t>
+  </si>
+  <si>
+    <t>8.72 (8.18-9.26)</t>
+  </si>
+  <si>
+    <t>9.76 (9.25-10.26)</t>
+  </si>
+  <si>
+    <t>9.92 (9.51-10.34)</t>
+  </si>
+  <si>
+    <t>9.97 (9.51-10.44)</t>
+  </si>
+  <si>
+    <t>9.78 (9.34-10.22)</t>
+  </si>
+  <si>
+    <t>10.54 (9.75-11.32)</t>
+  </si>
+  <si>
+    <t>9.35 (8.89-9.81)</t>
+  </si>
+  <si>
+    <t>10.19 (9.65-10.72)</t>
+  </si>
+  <si>
+    <t>9.82 (9.49-10.16)</t>
+  </si>
+  <si>
+    <t>16.34 (11.66-21.02)</t>
+  </si>
+  <si>
+    <t>9.03 (7.63-10.42)</t>
+  </si>
+  <si>
+    <t>19.75 (11.35-28.15)</t>
+  </si>
+  <si>
+    <t>9.22 (8.52-9.92)</t>
+  </si>
+  <si>
+    <t>9.38 (8.9-9.87)</t>
+  </si>
+  <si>
+    <t>10.65 (10.13-11.17)</t>
+  </si>
+  <si>
+    <t>9.54 (8.92-10.17)</t>
+  </si>
+  <si>
+    <t>9.32 (8.8-9.84)</t>
+  </si>
+  <si>
+    <t>10.47 (9.96-10.97)</t>
+  </si>
+  <si>
+    <t>9.93 (9.26-10.6)</t>
+  </si>
+  <si>
+    <t>9.83 (9.46-10.2)</t>
+  </si>
+  <si>
+    <t>10.21 (8.5-11.91)</t>
+  </si>
+  <si>
+    <t>10.85 (9.6-12.09)</t>
+  </si>
+  <si>
+    <t>9.78 (9.45-10.11)</t>
+  </si>
+  <si>
+    <t>7.39 (6.86-7.92)</t>
+  </si>
+  <si>
+    <t>7.45 (6.81-8.09)</t>
+  </si>
+  <si>
+    <t>7.24 (6.23-8.25)</t>
+  </si>
+  <si>
+    <t>6.38 (5.65-7.11)</t>
+  </si>
+  <si>
+    <t>8.12 (7.37-8.88)</t>
+  </si>
+  <si>
+    <t>7.23 (6.47-7.99)</t>
+  </si>
+  <si>
+    <t>7.51 (6.77-8.24)</t>
+  </si>
+  <si>
+    <t>7.28 (5.95-8.61)</t>
+  </si>
+  <si>
+    <t>7.62 (6.8-8.45)</t>
+  </si>
+  <si>
+    <t>7.15 (6.32-7.98)</t>
+  </si>
+  <si>
+    <t>7.34 (6.8-7.88)</t>
+  </si>
+  <si>
+    <t>3.53 (0-8.19)</t>
+  </si>
+  <si>
+    <t>9.54 (6.64-12.44)</t>
+  </si>
+  <si>
+    <t>1.05 (0-3.16)</t>
+  </si>
+  <si>
+    <t>6.41 (5.35-7.46)</t>
+  </si>
+  <si>
+    <t>6.75 (5.99-7.5)</t>
+  </si>
+  <si>
+    <t>8.75 (7.69-9.81)</t>
+  </si>
+  <si>
+    <t>6.59 (5.71-7.47)</t>
+  </si>
+  <si>
+    <t>6.87 (6.01-7.74)</t>
+  </si>
+  <si>
+    <t>8.64 (7.64-9.64)</t>
+  </si>
+  <si>
+    <t>8.05 (6.75-9.35)</t>
+  </si>
+  <si>
+    <t>7.13 (6.56-7.7)</t>
+  </si>
+  <si>
+    <t>8.94 (6.25-11.63)</t>
+  </si>
+  <si>
+    <t>6.52 (4.39-8.65)</t>
+  </si>
+  <si>
+    <t>7.43 (6.88-7.99)</t>
+  </si>
+  <si>
+    <t>6.83 (6.31-7.36)</t>
+  </si>
+  <si>
+    <t>7.35 (6.71-7.98)</t>
+  </si>
+  <si>
+    <t>5.56 (4.75-6.37)</t>
+  </si>
+  <si>
+    <t>6.09 (5.35-6.83)</t>
+  </si>
+  <si>
+    <t>7.4 (6.67-8.14)</t>
+  </si>
+  <si>
+    <t>6.73 (5.99-7.46)</t>
+  </si>
+  <si>
+    <t>6.91 (6.17-7.64)</t>
+  </si>
+  <si>
+    <t>8.63 (7-10.26)</t>
+  </si>
+  <si>
+    <t>6.29 (5.55-7.03)</t>
+  </si>
+  <si>
+    <t>6.93 (6.08-7.77)</t>
+  </si>
+  <si>
+    <t>6.76 (6.23-7.3)</t>
+  </si>
+  <si>
+    <t>5.8 (0-12.73)</t>
+  </si>
+  <si>
+    <t>7.58 (5.12-10.03)</t>
+  </si>
+  <si>
+    <t>24.64 (8.07-41.22)</t>
+  </si>
+  <si>
+    <t>4.91 (3.92-5.9)</t>
+  </si>
+  <si>
+    <t>6.65 (5.86-7.44)</t>
+  </si>
+  <si>
+    <t>7.97 (7.1-8.84)</t>
+  </si>
+  <si>
+    <t>5.47 (4.59-6.35)</t>
+  </si>
+  <si>
+    <t>6.83 (5.95-7.7)</t>
+  </si>
+  <si>
+    <t>7.66 (6.8-8.51)</t>
+  </si>
+  <si>
+    <t>5.92 (4.86-6.98)</t>
+  </si>
+  <si>
+    <t>6.94 (6.34-7.53)</t>
+  </si>
+  <si>
+    <t>8.47 (5.86-11.09)</t>
+  </si>
+  <si>
+    <t>9.12 (6.49-11.74)</t>
+  </si>
+  <si>
+    <t>6.72 (6.18-7.25)</t>
+  </si>
+  <si>
+    <t>6.62 (6.11-7.14)</t>
+  </si>
+  <si>
+    <t>6.82 (6.17-7.47)</t>
+  </si>
+  <si>
+    <t>6.17 (5.31-7.03)</t>
+  </si>
+  <si>
+    <t>5.66 (4.99-6.33)</t>
+  </si>
+  <si>
+    <t>7.32 (6.57-8.06)</t>
+  </si>
+  <si>
+    <t>7.21 (6.37-8.06)</t>
+  </si>
+  <si>
+    <t>6.2 (5.56-6.85)</t>
+  </si>
+  <si>
+    <t>6.93 (5.42-8.44)</t>
+  </si>
+  <si>
+    <t>6.63 (5.87-7.38)</t>
+  </si>
+  <si>
+    <t>6.53 (5.72-7.34)</t>
+  </si>
+  <si>
+    <t>6.34 (5.81-6.87)</t>
+  </si>
+  <si>
+    <t>10.76 (1.91-19.61)</t>
+  </si>
+  <si>
+    <t>10.87 (7.81-13.93)</t>
+  </si>
+  <si>
+    <t>22.55 (7.02-38.09)</t>
+  </si>
+  <si>
+    <t>5.68 (4.43-6.93)</t>
+  </si>
+  <si>
+    <t>6.34 (5.57-7.12)</t>
+  </si>
+  <si>
+    <t>7.25 (6.45-8.05)</t>
+  </si>
+  <si>
+    <t>5.69 (4.74-6.64)</t>
+  </si>
+  <si>
+    <t>6.52 (5.62-7.43)</t>
+  </si>
+  <si>
+    <t>7.22 (6.39-8.04)</t>
+  </si>
+  <si>
+    <t>6.03 (4.78-7.27)</t>
+  </si>
+  <si>
+    <t>6.53 (5.94-7.11)</t>
+  </si>
+  <si>
+    <t>10.39 (7.23-13.55)</t>
+  </si>
+  <si>
+    <t>10.44 (7.47-13.41)</t>
+  </si>
+  <si>
+    <t>6.4 (5.87-6.93)</t>
+  </si>
+  <si>
+    <t>6.38 (5.85-6.9)</t>
+  </si>
+  <si>
+    <t>6.94 (6.28-7.6)</t>
+  </si>
+  <si>
+    <t>5.16 (4.27-6.04)</t>
+  </si>
+  <si>
+    <t>5.45 (4.65-6.25)</t>
+  </si>
+  <si>
+    <t>7.03 (6.33-7.73)</t>
+  </si>
+  <si>
+    <t>6.47 (5.67-7.27)</t>
+  </si>
+  <si>
+    <t>6.31 (5.61-7.01)</t>
+  </si>
+  <si>
+    <t>7.05 (5.56-8.55)</t>
+  </si>
+  <si>
+    <t>6.4 (5.59-7.21)</t>
+  </si>
+  <si>
+    <t>6.12 (5.38-6.87)</t>
+  </si>
+  <si>
+    <t>6.18 (5.66-6.71)</t>
+  </si>
+  <si>
+    <t>20.22 (8.81-31.62)</t>
+  </si>
+  <si>
+    <t>7.56 (4.71-10.4)</t>
+  </si>
+  <si>
+    <t>18.43 (5.79-31.08)</t>
+  </si>
+  <si>
+    <t>5.86 (4.71-7.01)</t>
+  </si>
+  <si>
+    <t>5.37 (4.67-6.08)</t>
+  </si>
+  <si>
+    <t>7.8 (6.85-8.75)</t>
+  </si>
+  <si>
+    <t>5.61 (4.68-6.55)</t>
+  </si>
+  <si>
+    <t>6.13 (5.2-7.06)</t>
+  </si>
+  <si>
+    <t>7.12 (6.29-7.95)</t>
+  </si>
+  <si>
+    <t>6.86 (5.62-8.1)</t>
+  </si>
+  <si>
+    <t>6.09 (5.51-6.67)</t>
+  </si>
+  <si>
+    <t>9.4 (6.57-12.22)</t>
+  </si>
+  <si>
+    <t>10.55 (7.48-13.62)</t>
+  </si>
+  <si>
+    <t>6.16 (5.62-6.69)</t>
+  </si>
+  <si>
+    <t>6.02 (5.55-6.48)</t>
+  </si>
+  <si>
+    <t>6.2 (5.63-6.78)</t>
+  </si>
+  <si>
+    <t>5.62 (4.79-6.45)</t>
+  </si>
+  <si>
+    <t>5.34 (4.66-6.01)</t>
+  </si>
+  <si>
+    <t>6.47 (5.84-7.1)</t>
+  </si>
+  <si>
+    <t>6.01 (5.37-6.64)</t>
+  </si>
+  <si>
+    <t>6.02 (5.37-6.68)</t>
+  </si>
+  <si>
+    <t>6.46 (5.12-7.79)</t>
+  </si>
+  <si>
+    <t>5.98 (5.29-6.67)</t>
+  </si>
+  <si>
+    <t>5.91 (5.17-6.65)</t>
+  </si>
+  <si>
+    <t>5.87 (5.4-6.33)</t>
+  </si>
+  <si>
+    <t>12.19 (3.73-20.65)</t>
+  </si>
+  <si>
+    <t>8.96 (6.3-11.62)</t>
+  </si>
+  <si>
+    <t>9.24 (0-19.23)</t>
+  </si>
+  <si>
+    <t>4.81 (3.76-5.85)</t>
+  </si>
+  <si>
+    <t>5.8 (5.07-6.54)</t>
+  </si>
+  <si>
+    <t>6.68 (5.95-7.41)</t>
+  </si>
+  <si>
+    <t>5.62 (4.64-6.61)</t>
+  </si>
+  <si>
+    <t>6.32 (5.61-7.03)</t>
+  </si>
+  <si>
+    <t>5.82 (4.62-7.02)</t>
+  </si>
+  <si>
+    <t>5.97 (5.45-6.48)</t>
+  </si>
+  <si>
+    <t>7.27 (5.01-9.53)</t>
+  </si>
+  <si>
+    <t>9.4 (6.52-12.29)</t>
+  </si>
+  <si>
+    <t>5.87 (5.4-6.35)</t>
   </si>
 </sst>
 </file>
@@ -7857,7 +9135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8422,9 +9700,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8434,14 +9709,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -9314,7 +10589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742B2AF0-DAE1-4BD6-B212-952372EF2D44}">
   <dimension ref="B1:M80"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -9329,24 +10604,24 @@
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="210" t="s">
+      <c r="C2" s="209" t="s">
         <v>1549</v>
       </c>
-      <c r="D2" s="213" t="s">
+      <c r="D2" s="212" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
         <v>1582</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="211" t="s">
+      <c r="K2" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="212"/>
+      <c r="L2" s="211"/>
     </row>
     <row r="3" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
@@ -11666,29 +12941,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="214" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="215" t="s">
+      <c r="C2" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="214" t="s">
         <v>1499</v>
       </c>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215" t="s">
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
       <c r="J2" s="172" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="215"/>
-      <c r="C3" s="215"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
       <c r="D3" s="172" t="s">
         <v>3</v>
       </c>
@@ -14215,8 +15490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D75998D-98AA-47D3-BA4D-47F041728332}">
   <dimension ref="A2:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14239,27 +15514,27 @@
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="218" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="217"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="218"/>
-      <c r="G5" s="216" t="s">
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="217"/>
+      <c r="G5" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="217"/>
-      <c r="I5" s="218"/>
-      <c r="J5" s="221" t="s">
+      <c r="H5" s="216"/>
+      <c r="I5" s="217"/>
+      <c r="J5" s="220" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="222"/>
+      <c r="K5" s="221"/>
     </row>
     <row r="6" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="220"/>
+      <c r="B6" s="219"/>
       <c r="C6" s="122" t="s">
         <v>1583</v>
       </c>
@@ -14284,7 +15559,7 @@
       <c r="J6" s="36">
         <v>2023</v>
       </c>
-      <c r="K6" s="190">
+      <c r="K6" s="189">
         <v>2024</v>
       </c>
     </row>
@@ -14303,21 +15578,21 @@
       <c r="K7" s="151"/>
     </row>
     <row r="8" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="195" t="s">
+      <c r="B8" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="196"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="195"/>
     </row>
     <row r="9" spans="2:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="205" t="s">
+      <c r="B9" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C9" s="192" t="s">
@@ -14349,48 +15624,82 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="206" t="s">
+      <c r="B10" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>2361</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>2386</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>2436</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>2461</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>2487</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>2512</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>2537</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>2562</v>
+      </c>
     </row>
     <row r="11" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="206" t="s">
+      <c r="B11" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>2587</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>2612</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>2637</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>2662</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>2687</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>2712</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>2737</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>2762</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>2787</v>
+      </c>
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="197" t="s">
+      <c r="B12" s="196" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="196"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="198"/>
-      <c r="G12" s="199"/>
-      <c r="H12" s="199"/>
-      <c r="I12" s="199"/>
-      <c r="J12" s="199"/>
-      <c r="K12" s="199"/>
+      <c r="C12" s="195"/>
+      <c r="D12" s="195"/>
+      <c r="E12" s="195"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="198"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="198"/>
     </row>
     <row r="13" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
@@ -14404,10 +15713,10 @@
       <c r="H13" s="183"/>
       <c r="I13" s="183"/>
       <c r="J13" s="146"/>
-      <c r="K13" s="189"/>
+      <c r="K13" s="188"/>
     </row>
     <row r="14" spans="2:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="205" t="s">
+      <c r="B14" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C14" s="87" t="s">
@@ -14439,34 +15748,68 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="206" t="s">
+      <c r="B15" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C15" s="183" t="s">
         <v>2362</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="189"/>
+      <c r="D15" s="11" t="s">
+        <v>2387</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>2412</v>
+      </c>
+      <c r="F15" s="183" t="s">
+        <v>2437</v>
+      </c>
+      <c r="G15" s="183" t="s">
+        <v>2462</v>
+      </c>
+      <c r="H15" s="183" t="s">
+        <v>2488</v>
+      </c>
+      <c r="I15" s="183" t="s">
+        <v>2513</v>
+      </c>
+      <c r="J15" s="183" t="s">
+        <v>2538</v>
+      </c>
+      <c r="K15" s="188" t="s">
+        <v>2563</v>
+      </c>
     </row>
     <row r="16" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="206" t="s">
+      <c r="B16" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C16" s="183"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="189"/>
+      <c r="C16" s="183" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>2613</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>2638</v>
+      </c>
+      <c r="F16" s="191" t="s">
+        <v>2663</v>
+      </c>
+      <c r="G16" s="183" t="s">
+        <v>2688</v>
+      </c>
+      <c r="H16" s="183" t="s">
+        <v>2713</v>
+      </c>
+      <c r="I16" s="183" t="s">
+        <v>2738</v>
+      </c>
+      <c r="J16" s="183" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K16" s="188" t="s">
+        <v>2788</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="19" t="s">
@@ -14483,7 +15826,7 @@
       <c r="K17" s="87"/>
     </row>
     <row r="18" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="205" t="s">
+      <c r="B18" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C18" s="87" t="s">
@@ -14515,48 +15858,82 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="206" t="s">
+      <c r="B19" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C19" s="87" t="s">
         <v>2363</v>
       </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
+      <c r="D19" s="87" t="s">
+        <v>2388</v>
+      </c>
+      <c r="E19" s="87" t="s">
+        <v>2413</v>
+      </c>
+      <c r="F19" s="87" t="s">
+        <v>2438</v>
+      </c>
+      <c r="G19" s="87" t="s">
+        <v>2463</v>
+      </c>
+      <c r="H19" s="87" t="s">
+        <v>2489</v>
+      </c>
+      <c r="I19" s="87" t="s">
+        <v>2514</v>
+      </c>
+      <c r="J19" s="87" t="s">
+        <v>2539</v>
+      </c>
+      <c r="K19" s="87" t="s">
+        <v>2564</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="206" t="s">
+      <c r="B20" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
+      <c r="C20" s="87" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D20" s="87" t="s">
+        <v>2614</v>
+      </c>
+      <c r="E20" s="87" t="s">
+        <v>2639</v>
+      </c>
+      <c r="F20" s="87" t="s">
+        <v>2664</v>
+      </c>
+      <c r="G20" s="87" t="s">
+        <v>2689</v>
+      </c>
+      <c r="H20" s="87" t="s">
+        <v>2714</v>
+      </c>
+      <c r="I20" s="87" t="s">
+        <v>2739</v>
+      </c>
+      <c r="J20" s="87" t="s">
+        <v>2764</v>
+      </c>
+      <c r="K20" s="87" t="s">
+        <v>2789</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="200" t="s">
+      <c r="B21" s="199" t="s">
         <v>2137</v>
       </c>
-      <c r="C21" s="199"/>
-      <c r="D21" s="199"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="199"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="199"/>
-      <c r="K21" s="199"/>
+      <c r="C21" s="198"/>
+      <c r="D21" s="198"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="198"/>
+      <c r="H21" s="198"/>
+      <c r="I21" s="198"/>
+      <c r="J21" s="198"/>
+      <c r="K21" s="198"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="7" t="s">
@@ -14573,7 +15950,7 @@
       <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="205" t="s">
+      <c r="B23" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C23" s="40" t="s">
@@ -14605,34 +15982,68 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="206" t="s">
+      <c r="B24" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>2364</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
+      <c r="D24" s="18" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>2414</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>2439</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>2490</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>2515</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>2540</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>2565</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="206" t="s">
+      <c r="B25" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
+      <c r="C25" s="18" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>2615</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>2640</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>2665</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>2690</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>2715</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>2740</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>2765</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>2790</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="7" t="s">
@@ -14649,7 +16060,7 @@
       <c r="K26" s="18"/>
     </row>
     <row r="27" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="205" t="s">
+      <c r="B27" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C27" s="40" t="s">
@@ -14681,49 +16092,83 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="206" t="s">
+      <c r="B28" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>2365</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
+      <c r="D28" s="18" t="s">
+        <v>2390</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>2415</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>2440</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>2465</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>2491</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>2516</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>2541</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>2566</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="206" t="s">
+      <c r="B29" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
+      <c r="C29" s="18" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>2616</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>2641</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>2666</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>2691</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>2716</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>2741</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>2766</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>2791</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="41"/>
-      <c r="B30" s="201" t="s">
+      <c r="B30" s="200" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="199"/>
-      <c r="D30" s="199"/>
-      <c r="E30" s="199"/>
-      <c r="F30" s="199"/>
-      <c r="G30" s="199"/>
-      <c r="H30" s="199"/>
-      <c r="I30" s="199"/>
-      <c r="J30" s="199"/>
-      <c r="K30" s="199"/>
+      <c r="C30" s="198"/>
+      <c r="D30" s="198"/>
+      <c r="E30" s="198"/>
+      <c r="F30" s="198"/>
+      <c r="G30" s="198"/>
+      <c r="H30" s="198"/>
+      <c r="I30" s="198"/>
+      <c r="J30" s="198"/>
+      <c r="K30" s="198"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="41"/>
@@ -14741,7 +16186,7 @@
       <c r="K31" s="18"/>
     </row>
     <row r="32" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="205" t="s">
+      <c r="B32" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C32" s="40" t="s">
@@ -14774,35 +16219,69 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="41"/>
-      <c r="B33" s="206" t="s">
+      <c r="B33" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>2366</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
+      <c r="D33" s="18" t="s">
+        <v>2391</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>2416</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>2441</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>2466</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>2492</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>2517</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>2542</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>2567</v>
+      </c>
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="41"/>
-      <c r="B34" s="206" t="s">
+      <c r="B34" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
+      <c r="C34" s="18" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>2617</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>2642</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>2667</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>2692</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>2717</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>2742</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>2767</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>2792</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="41"/>
@@ -14820,7 +16299,7 @@
       <c r="K35" s="18"/>
     </row>
     <row r="36" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="205" t="s">
+      <c r="B36" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C36" s="40" t="s">
@@ -14853,50 +16332,84 @@
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="41"/>
-      <c r="B37" s="206" t="s">
+      <c r="B37" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>2367</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
+      <c r="D37" s="18" t="s">
+        <v>2392</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>2417</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>2467</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>2518</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>2543</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>2568</v>
+      </c>
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="41"/>
-      <c r="B38" s="206" t="s">
+      <c r="B38" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="136"/>
-      <c r="I38" s="122"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
+      <c r="C38" s="18" t="s">
+        <v>2593</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>2618</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>2643</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>2668</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>2693</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>2718</v>
+      </c>
+      <c r="I38" s="122" t="s">
+        <v>2743</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>2768</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>2793</v>
+      </c>
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="41"/>
-      <c r="B39" s="200" t="s">
+      <c r="B39" s="199" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="199"/>
-      <c r="D39" s="202"/>
-      <c r="E39" s="199"/>
-      <c r="F39" s="199"/>
-      <c r="G39" s="202"/>
-      <c r="H39" s="203"/>
-      <c r="I39" s="204"/>
-      <c r="J39" s="203"/>
-      <c r="K39" s="203"/>
+      <c r="C39" s="198"/>
+      <c r="D39" s="201"/>
+      <c r="E39" s="198"/>
+      <c r="F39" s="198"/>
+      <c r="G39" s="201"/>
+      <c r="H39" s="202"/>
+      <c r="I39" s="203"/>
+      <c r="J39" s="202"/>
+      <c r="K39" s="202"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="41"/>
@@ -14911,10 +16424,10 @@
       <c r="H40" s="122"/>
       <c r="I40" s="18"/>
       <c r="J40" s="146"/>
-      <c r="K40" s="189"/>
+      <c r="K40" s="188"/>
     </row>
     <row r="41" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="205" t="s">
+      <c r="B41" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C41" s="40" t="s">
@@ -14947,35 +16460,69 @@
     </row>
     <row r="42" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="41"/>
-      <c r="B42" s="206" t="s">
+      <c r="B42" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>2368</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="122"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="122"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
+      <c r="D42" s="18" t="s">
+        <v>2393</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>2418</v>
+      </c>
+      <c r="F42" s="122" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>2468</v>
+      </c>
+      <c r="H42" s="122" t="s">
+        <v>2494</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>2519</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>2544</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>2569</v>
+      </c>
     </row>
     <row r="43" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="41"/>
-      <c r="B43" s="206" t="s">
+      <c r="B43" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="122"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="122"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
+      <c r="C43" s="18" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>2619</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>2644</v>
+      </c>
+      <c r="F43" s="122" t="s">
+        <v>2669</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>2694</v>
+      </c>
+      <c r="H43" s="122" t="s">
+        <v>2719</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>2744</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>2769</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>2794</v>
+      </c>
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="41"/>
@@ -14993,7 +16540,7 @@
       <c r="K44" s="18"/>
     </row>
     <row r="45" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="205" t="s">
+      <c r="B45" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C45" s="40" t="s">
@@ -15026,35 +16573,69 @@
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="41"/>
-      <c r="B46" s="206" t="s">
+      <c r="B46" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>2369</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="187"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
+      <c r="D46" s="18" t="s">
+        <v>2394</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>2419</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>2444</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>2469</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>2495</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>2520</v>
+      </c>
+      <c r="J46" s="18" t="s">
+        <v>2545</v>
+      </c>
+      <c r="K46" s="18" t="s">
+        <v>2570</v>
+      </c>
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="41"/>
-      <c r="B47" s="206" t="s">
+      <c r="B47" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="187"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
+      <c r="C47" s="18" t="s">
+        <v>2595</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>2620</v>
+      </c>
+      <c r="E47" s="40" t="s">
+        <v>2645</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>2670</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>2695</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>2720</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>2745</v>
+      </c>
+      <c r="J47" s="18" t="s">
+        <v>2770</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>2795</v>
+      </c>
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="41"/>
@@ -15072,7 +16653,7 @@
       <c r="K48" s="18"/>
     </row>
     <row r="49" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="205" t="s">
+      <c r="B49" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C49" s="86" t="s">
@@ -15105,50 +16686,84 @@
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="41"/>
-      <c r="B50" s="206" t="s">
+      <c r="B50" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C50" s="122" t="s">
         <v>2370</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
+      <c r="D50" s="40" t="s">
+        <v>2395</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>2420</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>2445</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>2470</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>2496</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>2521</v>
+      </c>
+      <c r="J50" s="18" t="s">
+        <v>2546</v>
+      </c>
+      <c r="K50" s="18" t="s">
+        <v>2571</v>
+      </c>
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="41"/>
-      <c r="B51" s="206" t="s">
+      <c r="B51" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C51" s="122"/>
-      <c r="D51" s="136"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="122"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
+      <c r="C51" s="122" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>2621</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>2646</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>2671</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>2696</v>
+      </c>
+      <c r="H51" s="122" t="s">
+        <v>2721</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>2746</v>
+      </c>
+      <c r="J51" s="18" t="s">
+        <v>2771</v>
+      </c>
+      <c r="K51" s="18" t="s">
+        <v>2796</v>
+      </c>
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="41"/>
-      <c r="B52" s="200" t="s">
+      <c r="B52" s="199" t="s">
         <v>2145</v>
       </c>
-      <c r="C52" s="199"/>
-      <c r="D52" s="199"/>
-      <c r="E52" s="203"/>
-      <c r="F52" s="199"/>
-      <c r="G52" s="199"/>
-      <c r="H52" s="202"/>
-      <c r="I52" s="199"/>
-      <c r="J52" s="199"/>
-      <c r="K52" s="199"/>
+      <c r="C52" s="198"/>
+      <c r="D52" s="198"/>
+      <c r="E52" s="202"/>
+      <c r="F52" s="198"/>
+      <c r="G52" s="198"/>
+      <c r="H52" s="201"/>
+      <c r="I52" s="198"/>
+      <c r="J52" s="198"/>
+      <c r="K52" s="198"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="41"/>
@@ -15163,10 +16778,10 @@
       <c r="H53" s="11"/>
       <c r="I53" s="18"/>
       <c r="J53" s="146"/>
-      <c r="K53" s="189"/>
+      <c r="K53" s="188"/>
     </row>
     <row r="54" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="205" t="s">
+      <c r="B54" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C54" s="193" t="s">
@@ -15199,35 +16814,69 @@
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="41"/>
-      <c r="B55" s="206" t="s">
+      <c r="B55" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>2371</v>
       </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="187"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
+      <c r="D55" s="18" t="s">
+        <v>2396</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>2421</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>2446</v>
+      </c>
+      <c r="G55" s="40" t="s">
+        <v>2471</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>2497</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>2522</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>2547</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>2572</v>
+      </c>
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="41"/>
-      <c r="B56" s="206" t="s">
+      <c r="B56" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
+      <c r="C56" s="17" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>2622</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>2672</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>2697</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>2722</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>2747</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>2772</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>2797</v>
+      </c>
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="41"/>
@@ -15245,7 +16894,7 @@
       <c r="K57" s="18"/>
     </row>
     <row r="58" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="205" t="s">
+      <c r="B58" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C58" s="192" t="s">
@@ -15260,11 +16909,15 @@
       <c r="F58" s="192" t="s">
         <v>2225</v>
       </c>
-      <c r="G58" s="40"/>
+      <c r="G58" s="40" t="s">
+        <v>2486</v>
+      </c>
       <c r="H58" s="40" t="s">
         <v>2274</v>
       </c>
-      <c r="I58" s="192"/>
+      <c r="I58" s="40" t="s">
+        <v>2486</v>
+      </c>
       <c r="J58" s="40" t="s">
         <v>2322</v>
       </c>
@@ -15274,35 +16927,69 @@
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="41"/>
-      <c r="B59" s="206" t="s">
+      <c r="B59" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>2372</v>
       </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="122"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
+      <c r="D59" s="11" t="s">
+        <v>2397</v>
+      </c>
+      <c r="E59" s="122" t="s">
+        <v>2422</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>2447</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>2472</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>2498</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>2523</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>2548</v>
+      </c>
+      <c r="K59" s="18" t="s">
+        <v>2573</v>
+      </c>
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="41"/>
-      <c r="B60" s="206" t="s">
+      <c r="B60" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="122"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="183"/>
-      <c r="H60" s="136"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
+      <c r="C60" s="11" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>2623</v>
+      </c>
+      <c r="E60" s="122" t="s">
+        <v>2648</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>2673</v>
+      </c>
+      <c r="G60" s="183" t="s">
+        <v>2698</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>2723</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>2748</v>
+      </c>
+      <c r="J60" s="18" t="s">
+        <v>2773</v>
+      </c>
+      <c r="K60" s="18" t="s">
+        <v>2798</v>
+      </c>
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="41"/>
@@ -15320,7 +17007,7 @@
       <c r="K61" s="122"/>
     </row>
     <row r="62" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="205" t="s">
+      <c r="B62" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C62" s="193" t="s">
@@ -15353,39 +17040,73 @@
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="41"/>
-      <c r="B63" s="206" t="s">
+      <c r="B63" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>2373</v>
       </c>
-      <c r="D63" s="18"/>
-      <c r="E63" s="187"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
+      <c r="D63" s="18" t="s">
+        <v>2398</v>
+      </c>
+      <c r="E63" s="40" t="s">
+        <v>2423</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>2448</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>2473</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>2524</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>2549</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>2574</v>
+      </c>
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="41"/>
-      <c r="B64" s="206" t="s">
+      <c r="B64" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="187"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
+      <c r="C64" s="17" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>2624</v>
+      </c>
+      <c r="E64" s="40" t="s">
+        <v>2649</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>2674</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>2699</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>2724</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>2749</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>2774</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>2799</v>
+      </c>
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="41"/>
-      <c r="B65" s="191" t="s">
+      <c r="B65" s="190" t="s">
         <v>1575</v>
       </c>
       <c r="C65" s="17"/>
@@ -15399,7 +17120,7 @@
       <c r="K65" s="18"/>
     </row>
     <row r="66" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="205" t="s">
+      <c r="B66" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C66" s="193" t="s">
@@ -15417,7 +17138,9 @@
       <c r="G66" s="40" t="s">
         <v>2251</v>
       </c>
-      <c r="H66" s="40"/>
+      <c r="H66" s="40" t="s">
+        <v>2486</v>
+      </c>
       <c r="I66" s="86" t="s">
         <v>2299</v>
       </c>
@@ -15430,50 +17153,84 @@
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="41"/>
-      <c r="B67" s="206" t="s">
+      <c r="B67" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C67" s="17" t="s">
         <v>2374</v>
       </c>
-      <c r="D67" s="122"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="122"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="122"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
+      <c r="D67" s="122" t="s">
+        <v>2399</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>2424</v>
+      </c>
+      <c r="F67" s="122" t="s">
+        <v>2449</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>2474</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>2500</v>
+      </c>
+      <c r="I67" s="122" t="s">
+        <v>2525</v>
+      </c>
+      <c r="J67" s="18" t="s">
+        <v>2550</v>
+      </c>
+      <c r="K67" s="18" t="s">
+        <v>2575</v>
+      </c>
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="41"/>
-      <c r="B68" s="206" t="s">
+      <c r="B68" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="122"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="122"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="122"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
+      <c r="C68" s="17" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D68" s="122" t="s">
+        <v>2625</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>2660</v>
+      </c>
+      <c r="F68" s="122" t="s">
+        <v>2675</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>2700</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>2725</v>
+      </c>
+      <c r="I68" s="122" t="s">
+        <v>2750</v>
+      </c>
+      <c r="J68" s="18" t="s">
+        <v>2775</v>
+      </c>
+      <c r="K68" s="18" t="s">
+        <v>2800</v>
+      </c>
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="41"/>
-      <c r="B69" s="200" t="s">
+      <c r="B69" s="199" t="s">
         <v>2150</v>
       </c>
-      <c r="C69" s="199"/>
-      <c r="D69" s="199"/>
-      <c r="E69" s="203"/>
-      <c r="F69" s="199"/>
-      <c r="G69" s="199"/>
-      <c r="H69" s="199"/>
-      <c r="I69" s="199"/>
-      <c r="J69" s="199"/>
-      <c r="K69" s="199"/>
+      <c r="C69" s="198"/>
+      <c r="D69" s="198"/>
+      <c r="E69" s="202"/>
+      <c r="F69" s="198"/>
+      <c r="G69" s="198"/>
+      <c r="H69" s="198"/>
+      <c r="I69" s="198"/>
+      <c r="J69" s="198"/>
+      <c r="K69" s="198"/>
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="41"/>
@@ -15491,7 +17248,7 @@
       <c r="K70" s="18"/>
     </row>
     <row r="71" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="205" t="s">
+      <c r="B71" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C71" s="193" t="s">
@@ -15524,35 +17281,69 @@
     </row>
     <row r="72" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="41"/>
-      <c r="B72" s="206" t="s">
+      <c r="B72" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C72" s="17" t="s">
         <v>2375</v>
       </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
+      <c r="D72" s="18" t="s">
+        <v>2400</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>2475</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>2526</v>
+      </c>
+      <c r="J72" s="18" t="s">
+        <v>2551</v>
+      </c>
+      <c r="K72" s="18" t="s">
+        <v>2576</v>
+      </c>
     </row>
     <row r="73" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="41"/>
-      <c r="B73" s="206" t="s">
+      <c r="B73" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
+      <c r="C73" s="17" t="s">
+        <v>2601</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>2626</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>2650</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>2676</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>2701</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>2726</v>
+      </c>
+      <c r="I73" s="18" t="s">
+        <v>2751</v>
+      </c>
+      <c r="J73" s="18" t="s">
+        <v>2776</v>
+      </c>
+      <c r="K73" s="18" t="s">
+        <v>2801</v>
+      </c>
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="41"/>
@@ -15567,10 +17358,10 @@
       <c r="H74" s="18"/>
       <c r="I74" s="18"/>
       <c r="J74" s="146"/>
-      <c r="K74" s="189"/>
+      <c r="K74" s="188"/>
     </row>
     <row r="75" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="205" t="s">
+      <c r="B75" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C75" s="192" t="s">
@@ -15603,35 +17394,69 @@
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="41"/>
-      <c r="B76" s="206" t="s">
+      <c r="B76" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>2376</v>
       </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
+      <c r="D76" s="11" t="s">
+        <v>2401</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>2451</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>2476</v>
+      </c>
+      <c r="H76" s="18" t="s">
+        <v>2502</v>
+      </c>
+      <c r="I76" s="18" t="s">
+        <v>2527</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>2552</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>2577</v>
+      </c>
     </row>
     <row r="77" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="41"/>
-      <c r="B77" s="206" t="s">
+      <c r="B77" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
+      <c r="C77" s="11" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>2627</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>2651</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>2677</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>2702</v>
+      </c>
+      <c r="H77" s="18" t="s">
+        <v>2727</v>
+      </c>
+      <c r="I77" s="18" t="s">
+        <v>2752</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>2777</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>2801</v>
+      </c>
     </row>
     <row r="78" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="41"/>
@@ -15649,7 +17474,7 @@
       <c r="K78" s="18"/>
     </row>
     <row r="79" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="205" t="s">
+      <c r="B79" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C79" s="40" t="s">
@@ -15682,50 +17507,84 @@
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="41"/>
-      <c r="B80" s="206" t="s">
+      <c r="B80" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>2377</v>
       </c>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
+      <c r="D80" s="18" t="s">
+        <v>2402</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>2427</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>2452</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>2477</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>2503</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>2528</v>
+      </c>
+      <c r="J80" s="18" t="s">
+        <v>2553</v>
+      </c>
+      <c r="K80" s="18" t="s">
+        <v>2578</v>
+      </c>
     </row>
     <row r="81" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="41"/>
-      <c r="B81" s="206" t="s">
+      <c r="B81" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
+      <c r="C81" s="18" t="s">
+        <v>2603</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>2628</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>2652</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>2678</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>2703</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>2728</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>2753</v>
+      </c>
+      <c r="J81" s="18" t="s">
+        <v>2778</v>
+      </c>
+      <c r="K81" s="18" t="s">
+        <v>2802</v>
+      </c>
     </row>
     <row r="82" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="41"/>
-      <c r="B82" s="207" t="s">
+      <c r="B82" s="206" t="s">
         <v>2154</v>
       </c>
-      <c r="C82" s="204"/>
-      <c r="D82" s="202"/>
-      <c r="E82" s="196"/>
-      <c r="F82" s="204"/>
-      <c r="G82" s="202"/>
-      <c r="H82" s="204"/>
-      <c r="I82" s="204"/>
-      <c r="J82" s="204"/>
-      <c r="K82" s="204"/>
+      <c r="C82" s="203"/>
+      <c r="D82" s="201"/>
+      <c r="E82" s="195"/>
+      <c r="F82" s="203"/>
+      <c r="G82" s="201"/>
+      <c r="H82" s="203"/>
+      <c r="I82" s="203"/>
+      <c r="J82" s="203"/>
+      <c r="K82" s="203"/>
     </row>
     <row r="83" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="41"/>
@@ -15743,7 +17602,7 @@
       <c r="K83" s="136"/>
     </row>
     <row r="84" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="205" t="s">
+      <c r="B84" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C84" s="40" t="s">
@@ -15776,35 +17635,69 @@
     </row>
     <row r="85" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="41"/>
-      <c r="B85" s="206" t="s">
+      <c r="B85" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>2378</v>
       </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="187"/>
-      <c r="H85" s="188"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="188"/>
-      <c r="K85" s="188"/>
+      <c r="D85" s="11" t="s">
+        <v>2403</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>2428</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>2453</v>
+      </c>
+      <c r="G85" s="40" t="s">
+        <v>2478</v>
+      </c>
+      <c r="H85" s="40" t="s">
+        <v>2504</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>2529</v>
+      </c>
+      <c r="J85" s="192" t="s">
+        <v>2554</v>
+      </c>
+      <c r="K85" s="192" t="s">
+        <v>2579</v>
+      </c>
     </row>
     <row r="86" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="41"/>
-      <c r="B86" s="206" t="s">
+      <c r="B86" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C86" s="187"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="187"/>
-      <c r="H86" s="188"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="188"/>
-      <c r="K86" s="188"/>
+      <c r="C86" s="18" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>2629</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>2653</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>2679</v>
+      </c>
+      <c r="G86" s="40" t="s">
+        <v>2704</v>
+      </c>
+      <c r="H86" s="40" t="s">
+        <v>2729</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>2754</v>
+      </c>
+      <c r="J86" s="192" t="s">
+        <v>2779</v>
+      </c>
+      <c r="K86" s="192" t="s">
+        <v>2803</v>
+      </c>
     </row>
     <row r="87" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="41"/>
@@ -15822,7 +17715,7 @@
       <c r="K87" s="122"/>
     </row>
     <row r="88" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="205" t="s">
+      <c r="B88" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C88" s="40" t="s">
@@ -15855,35 +17748,69 @@
     </row>
     <row r="89" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="41"/>
-      <c r="B89" s="206" t="s">
+      <c r="B89" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>2379</v>
       </c>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
+      <c r="D89" s="18" t="s">
+        <v>2404</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>2429</v>
+      </c>
+      <c r="F89" s="18" t="s">
+        <v>2454</v>
+      </c>
+      <c r="G89" s="18" t="s">
+        <v>2479</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>2505</v>
+      </c>
+      <c r="I89" s="18" t="s">
+        <v>2530</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>2555</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>2580</v>
+      </c>
     </row>
     <row r="90" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="41"/>
-      <c r="B90" s="206" t="s">
+      <c r="B90" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
+      <c r="C90" s="18" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>2654</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>2680</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>2705</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>2730</v>
+      </c>
+      <c r="I90" s="18" t="s">
+        <v>2755</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>2780</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>2804</v>
+      </c>
     </row>
     <row r="91" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="41"/>
@@ -15901,7 +17828,7 @@
       <c r="K91" s="18"/>
     </row>
     <row r="92" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="205" t="s">
+      <c r="B92" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C92" s="40" t="s">
@@ -15934,50 +17861,84 @@
     </row>
     <row r="93" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="41"/>
-      <c r="B93" s="206" t="s">
+      <c r="B93" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C93" s="40" t="s">
         <v>2380</v>
       </c>
-      <c r="D93" s="11"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="122"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="122"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
+      <c r="D93" s="11" t="s">
+        <v>2405</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F93" s="122" t="s">
+        <v>2455</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>2480</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>2506</v>
+      </c>
+      <c r="I93" s="122" t="s">
+        <v>2531</v>
+      </c>
+      <c r="J93" s="18" t="s">
+        <v>2556</v>
+      </c>
+      <c r="K93" s="18" t="s">
+        <v>2581</v>
+      </c>
     </row>
     <row r="94" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="41"/>
-      <c r="B94" s="206" t="s">
+      <c r="B94" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C94" s="194"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="122"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="122"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
+      <c r="C94" s="40" t="s">
+        <v>2606</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>2631</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>2655</v>
+      </c>
+      <c r="F94" s="122" t="s">
+        <v>2681</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>2706</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>2731</v>
+      </c>
+      <c r="I94" s="122" t="s">
+        <v>2756</v>
+      </c>
+      <c r="J94" s="18" t="s">
+        <v>2781</v>
+      </c>
+      <c r="K94" s="18" t="s">
+        <v>2805</v>
+      </c>
     </row>
     <row r="95" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="41"/>
-      <c r="B95" s="200" t="s">
+      <c r="B95" s="199" t="s">
         <v>2158</v>
       </c>
-      <c r="C95" s="204"/>
-      <c r="D95" s="204"/>
-      <c r="E95" s="203"/>
-      <c r="F95" s="203"/>
-      <c r="G95" s="203"/>
-      <c r="H95" s="203"/>
-      <c r="I95" s="203"/>
-      <c r="J95" s="203"/>
-      <c r="K95" s="203"/>
+      <c r="C95" s="203"/>
+      <c r="D95" s="203"/>
+      <c r="E95" s="202"/>
+      <c r="F95" s="202"/>
+      <c r="G95" s="202"/>
+      <c r="H95" s="202"/>
+      <c r="I95" s="202"/>
+      <c r="J95" s="202"/>
+      <c r="K95" s="202"/>
     </row>
     <row r="96" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="41"/>
@@ -15992,10 +17953,10 @@
       <c r="H96" s="18"/>
       <c r="I96" s="11"/>
       <c r="J96" s="146"/>
-      <c r="K96" s="189"/>
+      <c r="K96" s="188"/>
     </row>
     <row r="97" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="205" t="s">
+      <c r="B97" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C97" s="40" t="s">
@@ -16028,35 +17989,69 @@
     </row>
     <row r="98" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="41"/>
-      <c r="B98" s="206" t="s">
+      <c r="B98" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C98" s="18" t="s">
         <v>2381</v>
       </c>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="122"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="122"/>
-      <c r="K98" s="122"/>
+      <c r="D98" s="18" t="s">
+        <v>2406</v>
+      </c>
+      <c r="E98" s="18" t="s">
+        <v>2431</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G98" s="122" t="s">
+        <v>2481</v>
+      </c>
+      <c r="H98" s="18" t="s">
+        <v>2507</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>2532</v>
+      </c>
+      <c r="J98" s="122" t="s">
+        <v>2557</v>
+      </c>
+      <c r="K98" s="122" t="s">
+        <v>2582</v>
+      </c>
     </row>
     <row r="99" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="41"/>
-      <c r="B99" s="206" t="s">
+      <c r="B99" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="122"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="122"/>
-      <c r="K99" s="122"/>
+      <c r="C99" s="18" t="s">
+        <v>2607</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>2632</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>2656</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>2682</v>
+      </c>
+      <c r="G99" s="122" t="s">
+        <v>2707</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>2732</v>
+      </c>
+      <c r="I99" s="18" t="s">
+        <v>2757</v>
+      </c>
+      <c r="J99" s="122" t="s">
+        <v>2782</v>
+      </c>
+      <c r="K99" s="122" t="s">
+        <v>2806</v>
+      </c>
     </row>
     <row r="100" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="41"/>
@@ -16074,7 +18069,7 @@
       <c r="K100" s="122"/>
     </row>
     <row r="101" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="205" t="s">
+      <c r="B101" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C101" s="40" t="s">
@@ -16107,35 +18102,69 @@
     </row>
     <row r="102" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="41"/>
-      <c r="B102" s="206" t="s">
+      <c r="B102" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C102" s="18" t="s">
         <v>2382</v>
       </c>
-      <c r="D102" s="18"/>
-      <c r="E102" s="183"/>
-      <c r="F102" s="183"/>
-      <c r="G102" s="122"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="122"/>
-      <c r="K102" s="122"/>
+      <c r="D102" s="18" t="s">
+        <v>2407</v>
+      </c>
+      <c r="E102" s="183" t="s">
+        <v>2432</v>
+      </c>
+      <c r="F102" s="183" t="s">
+        <v>2457</v>
+      </c>
+      <c r="G102" s="122" t="s">
+        <v>2482</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>2508</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>2533</v>
+      </c>
+      <c r="J102" s="122" t="s">
+        <v>2558</v>
+      </c>
+      <c r="K102" s="122" t="s">
+        <v>2583</v>
+      </c>
     </row>
     <row r="103" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="41"/>
-      <c r="B103" s="206" t="s">
+      <c r="B103" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="122"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
-      <c r="J103" s="122"/>
-      <c r="K103" s="122"/>
+      <c r="C103" s="18" t="s">
+        <v>2608</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>2633</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>2657</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>2683</v>
+      </c>
+      <c r="G103" s="122" t="s">
+        <v>2708</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>2733</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>2758</v>
+      </c>
+      <c r="J103" s="122" t="s">
+        <v>2783</v>
+      </c>
+      <c r="K103" s="122" t="s">
+        <v>2807</v>
+      </c>
     </row>
     <row r="104" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="41"/>
@@ -16150,10 +18179,10 @@
       <c r="H104" s="18"/>
       <c r="I104" s="18"/>
       <c r="J104" s="146"/>
-      <c r="K104" s="189"/>
+      <c r="K104" s="188"/>
     </row>
     <row r="105" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="205" t="s">
+      <c r="B105" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C105" s="192" t="s">
@@ -16186,50 +18215,84 @@
     </row>
     <row r="106" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="41"/>
-      <c r="B106" s="206" t="s">
+      <c r="B106" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>2383</v>
       </c>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="11"/>
+      <c r="D106" s="18" t="s">
+        <v>2408</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>2433</v>
+      </c>
+      <c r="F106" s="18" t="s">
+        <v>2458</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>2483</v>
+      </c>
+      <c r="H106" s="18" t="s">
+        <v>2509</v>
+      </c>
+      <c r="I106" s="18" t="s">
+        <v>2534</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>2559</v>
+      </c>
+      <c r="K106" s="11" t="s">
+        <v>2584</v>
+      </c>
     </row>
     <row r="107" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="41"/>
-      <c r="B107" s="206" t="s">
+      <c r="B107" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C107" s="11"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="18"/>
-      <c r="I107" s="18"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="11"/>
+      <c r="C107" s="11" t="s">
+        <v>2609</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>2634</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>2658</v>
+      </c>
+      <c r="F107" s="18" t="s">
+        <v>2684</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>2709</v>
+      </c>
+      <c r="H107" s="18" t="s">
+        <v>2734</v>
+      </c>
+      <c r="I107" s="18" t="s">
+        <v>2759</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>2784</v>
+      </c>
+      <c r="K107" s="11" t="s">
+        <v>2808</v>
+      </c>
     </row>
     <row r="108" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="41"/>
-      <c r="B108" s="208" t="s">
+      <c r="B108" s="207" t="s">
         <v>71</v>
       </c>
-      <c r="C108" s="209"/>
-      <c r="D108" s="204"/>
-      <c r="E108" s="204"/>
-      <c r="F108" s="204"/>
-      <c r="G108" s="204"/>
-      <c r="H108" s="204"/>
-      <c r="I108" s="203"/>
-      <c r="J108" s="204"/>
-      <c r="K108" s="204"/>
+      <c r="C108" s="208"/>
+      <c r="D108" s="203"/>
+      <c r="E108" s="203"/>
+      <c r="F108" s="203"/>
+      <c r="G108" s="203"/>
+      <c r="H108" s="203"/>
+      <c r="I108" s="202"/>
+      <c r="J108" s="203"/>
+      <c r="K108" s="203"/>
     </row>
     <row r="109" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="41"/>
@@ -16247,7 +18310,7 @@
       <c r="K109" s="18"/>
     </row>
     <row r="110" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="205" t="s">
+      <c r="B110" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C110" s="193" t="s">
@@ -16280,35 +18343,69 @@
     </row>
     <row r="111" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="41"/>
-      <c r="B111" s="206" t="s">
+      <c r="B111" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C111" s="122" t="s">
         <v>2384</v>
       </c>
-      <c r="D111" s="122"/>
-      <c r="E111" s="122"/>
-      <c r="F111" s="122"/>
-      <c r="G111" s="122"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="122"/>
-      <c r="J111" s="18"/>
-      <c r="K111" s="18"/>
+      <c r="D111" s="122" t="s">
+        <v>2409</v>
+      </c>
+      <c r="E111" s="122" t="s">
+        <v>2434</v>
+      </c>
+      <c r="F111" s="122" t="s">
+        <v>2459</v>
+      </c>
+      <c r="G111" s="122" t="s">
+        <v>2484</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>2510</v>
+      </c>
+      <c r="I111" s="191" t="s">
+        <v>2535</v>
+      </c>
+      <c r="J111" s="18" t="s">
+        <v>2560</v>
+      </c>
+      <c r="K111" s="18" t="s">
+        <v>2585</v>
+      </c>
     </row>
     <row r="112" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="41"/>
-      <c r="B112" s="206" t="s">
+      <c r="B112" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C112" s="122"/>
-      <c r="D112" s="136"/>
-      <c r="E112" s="136"/>
-      <c r="F112" s="136"/>
-      <c r="G112" s="122"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="136"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="18"/>
+      <c r="C112" s="122" t="s">
+        <v>2610</v>
+      </c>
+      <c r="D112" s="122" t="s">
+        <v>2636</v>
+      </c>
+      <c r="E112" s="122" t="s">
+        <v>2661</v>
+      </c>
+      <c r="F112" s="122" t="s">
+        <v>2685</v>
+      </c>
+      <c r="G112" s="122" t="s">
+        <v>2710</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>2735</v>
+      </c>
+      <c r="I112" s="191" t="s">
+        <v>2760</v>
+      </c>
+      <c r="J112" s="18" t="s">
+        <v>2785</v>
+      </c>
+      <c r="K112" s="18" t="s">
+        <v>2809</v>
+      </c>
     </row>
     <row r="113" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="41"/>
@@ -16326,7 +18423,7 @@
       <c r="K113" s="18"/>
     </row>
     <row r="114" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="205" t="s">
+      <c r="B114" s="204" t="s">
         <v>2135</v>
       </c>
       <c r="C114" s="193" t="s">
@@ -16359,35 +18456,69 @@
     </row>
     <row r="115" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="41"/>
-      <c r="B115" s="206" t="s">
+      <c r="B115" s="205" t="s">
         <v>2136</v>
       </c>
       <c r="C115" s="17" t="s">
         <v>2385</v>
       </c>
-      <c r="D115" s="122"/>
-      <c r="E115" s="122"/>
-      <c r="F115" s="122"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="146"/>
-      <c r="J115" s="18"/>
-      <c r="K115" s="18"/>
+      <c r="D115" s="122" t="s">
+        <v>2410</v>
+      </c>
+      <c r="E115" s="122" t="s">
+        <v>2435</v>
+      </c>
+      <c r="F115" s="122" t="s">
+        <v>2460</v>
+      </c>
+      <c r="G115" s="18" t="s">
+        <v>2485</v>
+      </c>
+      <c r="H115" s="18" t="s">
+        <v>2511</v>
+      </c>
+      <c r="I115" s="146" t="s">
+        <v>2536</v>
+      </c>
+      <c r="J115" s="18" t="s">
+        <v>2561</v>
+      </c>
+      <c r="K115" s="18" t="s">
+        <v>2586</v>
+      </c>
     </row>
     <row r="116" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="41"/>
-      <c r="B116" s="206" t="s">
+      <c r="B116" s="205" t="s">
         <v>1570</v>
       </c>
-      <c r="C116" s="146"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
-      <c r="J116" s="18"/>
-      <c r="K116" s="18"/>
+      <c r="C116" s="146" t="s">
+        <v>2611</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>2635</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>2659</v>
+      </c>
+      <c r="F116" s="18" t="s">
+        <v>2686</v>
+      </c>
+      <c r="G116" s="18" t="s">
+        <v>2711</v>
+      </c>
+      <c r="H116" s="18" t="s">
+        <v>2736</v>
+      </c>
+      <c r="I116" s="18" t="s">
+        <v>2761</v>
+      </c>
+      <c r="J116" s="18" t="s">
+        <v>2786</v>
+      </c>
+      <c r="K116" s="18" t="s">
+        <v>2810</v>
+      </c>
     </row>
     <row r="117" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="41"/>
@@ -16426,32 +18557,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="219" t="s">
+      <c r="B2" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="223" t="s">
+      <c r="C2" s="222" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="223" t="s">
+      <c r="D2" s="222" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="223" t="s">
+      <c r="E2" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="223" t="s">
+      <c r="F2" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="223" t="s">
+      <c r="G2" s="222" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="220"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="224"/>
-      <c r="G3" s="224"/>
+      <c r="B3" s="219"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
     </row>
     <row r="4" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="108" t="s">
@@ -17725,29 +19856,29 @@
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="226" t="s">
+      <c r="C4" s="225" t="s">
         <v>1549</v>
       </c>
-      <c r="D4" s="225" t="s">
+      <c r="D4" s="224" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="216" t="s">
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="217"/>
-      <c r="I4" s="218"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="217"/>
       <c r="J4" s="42" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="220"/>
-      <c r="C5" s="227"/>
+      <c r="B5" s="219"/>
+      <c r="C5" s="226"/>
       <c r="D5" s="149" t="s">
         <v>3</v>
       </c>
@@ -18206,30 +20337,30 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="235" t="s">
+      <c r="B2" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="236"/>
-      <c r="D2" s="239" t="s">
+      <c r="C2" s="235"/>
+      <c r="D2" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="240"/>
-      <c r="F2" s="231" t="s">
+      <c r="E2" s="239"/>
+      <c r="F2" s="230" t="s">
         <v>749</v>
       </c>
-      <c r="G2" s="232"/>
-      <c r="H2" s="231" t="s">
+      <c r="G2" s="231"/>
+      <c r="H2" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="232"/>
-      <c r="J2" s="231" t="s">
+      <c r="I2" s="231"/>
+      <c r="J2" s="230" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="232"/>
+      <c r="K2" s="231"/>
     </row>
     <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="237"/>
-      <c r="C3" s="238"/>
+      <c r="B3" s="236"/>
+      <c r="C3" s="237"/>
       <c r="D3" s="14" t="s">
         <v>41</v>
       </c>
@@ -18256,7 +20387,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="233" t="s">
+      <c r="B4" s="232" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -18280,7 +20411,7 @@
       <c r="K4" s="34"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="234"/>
+      <c r="B5" s="233"/>
       <c r="C5" s="35" t="s">
         <v>39</v>
       </c>
@@ -18310,7 +20441,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="241" t="s">
+      <c r="B6" s="240" t="s">
         <v>83</v>
       </c>
       <c r="C6" s="63" t="s">
@@ -18334,7 +20465,7 @@
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="242"/>
+      <c r="B7" s="241"/>
       <c r="C7" s="64" t="s">
         <v>94</v>
       </c>
@@ -18364,7 +20495,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="242"/>
+      <c r="B8" s="241"/>
       <c r="C8" s="64" t="s">
         <v>95</v>
       </c>
@@ -18394,7 +20525,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="242"/>
+      <c r="B9" s="241"/>
       <c r="C9" s="63" t="s">
         <v>96</v>
       </c>
@@ -18424,7 +20555,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="242"/>
+      <c r="B10" s="241"/>
       <c r="C10" s="65" t="s">
         <v>97</v>
       </c>
@@ -18454,7 +20585,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="243"/>
+      <c r="B11" s="242"/>
       <c r="C11" s="65" t="s">
         <v>98</v>
       </c>
@@ -18484,7 +20615,7 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="244" t="s">
+      <c r="B12" s="243" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="65" t="s">
@@ -18508,7 +20639,7 @@
       <c r="K12" s="148"/>
     </row>
     <row r="13" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="245"/>
+      <c r="B13" s="244"/>
       <c r="C13" s="66" t="s">
         <v>8</v>
       </c>
@@ -18538,7 +20669,7 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="249" t="s">
+      <c r="B14" s="248" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="66" t="s">
@@ -18562,7 +20693,7 @@
       <c r="K14" s="148"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="250"/>
+      <c r="B15" s="249"/>
       <c r="C15" s="66" t="s">
         <v>0</v>
       </c>
@@ -18592,7 +20723,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="250"/>
+      <c r="B16" s="249"/>
       <c r="C16" s="66" t="s">
         <v>1</v>
       </c>
@@ -18622,7 +20753,7 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="250"/>
+      <c r="B17" s="249"/>
       <c r="C17" s="123" t="s">
         <v>174</v>
       </c>
@@ -18652,7 +20783,7 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="251"/>
+      <c r="B18" s="250"/>
       <c r="C18" s="67" t="s">
         <v>100</v>
       </c>
@@ -18682,7 +20813,7 @@
       </c>
     </row>
     <row r="19" spans="2:11" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="249" t="s">
+      <c r="B19" s="248" t="s">
         <v>101</v>
       </c>
       <c r="C19" s="67" t="s">
@@ -18706,7 +20837,7 @@
       <c r="K19" s="87"/>
     </row>
     <row r="20" spans="2:11" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="250"/>
+      <c r="B20" s="249"/>
       <c r="C20" s="67" t="s">
         <v>111</v>
       </c>
@@ -18736,7 +20867,7 @@
       </c>
     </row>
     <row r="21" spans="2:11" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="251"/>
+      <c r="B21" s="250"/>
       <c r="C21" s="68" t="s">
         <v>100</v>
       </c>
@@ -18766,7 +20897,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="249" t="s">
+      <c r="B22" s="248" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="69" t="s">
@@ -18790,7 +20921,7 @@
       <c r="K22" s="87"/>
     </row>
     <row r="23" spans="2:11" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="250"/>
+      <c r="B23" s="249"/>
       <c r="C23" s="68" t="s">
         <v>113</v>
       </c>
@@ -18820,7 +20951,7 @@
       </c>
     </row>
     <row r="24" spans="2:11" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="250"/>
+      <c r="B24" s="249"/>
       <c r="C24" s="68" t="s">
         <v>114</v>
       </c>
@@ -18850,7 +20981,7 @@
       </c>
     </row>
     <row r="25" spans="2:11" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="250"/>
+      <c r="B25" s="249"/>
       <c r="C25" s="68" t="s">
         <v>115</v>
       </c>
@@ -18880,7 +21011,7 @@
       </c>
     </row>
     <row r="26" spans="2:11" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="249" t="s">
+      <c r="B26" s="248" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="68" t="s">
@@ -18904,7 +21035,7 @@
       <c r="K26" s="87"/>
     </row>
     <row r="27" spans="2:11" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="250"/>
+      <c r="B27" s="249"/>
       <c r="C27" s="69" t="s">
         <v>116</v>
       </c>
@@ -18934,7 +21065,7 @@
       </c>
     </row>
     <row r="28" spans="2:11" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="250"/>
+      <c r="B28" s="249"/>
       <c r="C28" s="69" t="s">
         <v>72</v>
       </c>
@@ -18964,7 +21095,7 @@
       </c>
     </row>
     <row r="29" spans="2:11" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="251"/>
+      <c r="B29" s="250"/>
       <c r="C29" s="69" t="s">
         <v>64</v>
       </c>
@@ -18994,7 +21125,7 @@
       </c>
     </row>
     <row r="30" spans="2:11" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="246" t="s">
+      <c r="B30" s="245" t="s">
         <v>102</v>
       </c>
       <c r="C30" s="69" t="s">
@@ -19018,7 +21149,7 @@
       <c r="K30" s="87"/>
     </row>
     <row r="31" spans="2:11" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="247"/>
+      <c r="B31" s="246"/>
       <c r="C31" s="69" t="s">
         <v>243</v>
       </c>
@@ -19048,7 +21179,7 @@
       </c>
     </row>
     <row r="32" spans="2:11" s="41" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="246" t="s">
+      <c r="B32" s="245" t="s">
         <v>1498</v>
       </c>
       <c r="C32" s="68" t="s">
@@ -19072,7 +21203,7 @@
       <c r="K32" s="34"/>
     </row>
     <row r="33" spans="2:11" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="248"/>
+      <c r="B33" s="247"/>
       <c r="C33" s="66" t="s">
         <v>32</v>
       </c>
@@ -19102,7 +21233,7 @@
       </c>
     </row>
     <row r="34" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="246" t="s">
+      <c r="B34" s="245" t="s">
         <v>1497</v>
       </c>
       <c r="C34" s="124" t="s">
@@ -19126,7 +21257,7 @@
       <c r="K34" s="87"/>
     </row>
     <row r="35" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="247"/>
+      <c r="B35" s="246"/>
       <c r="C35" s="133" t="s">
         <v>105</v>
       </c>
@@ -19156,7 +21287,7 @@
       </c>
     </row>
     <row r="36" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="247"/>
+      <c r="B36" s="246"/>
       <c r="C36" s="133" t="s">
         <v>106</v>
       </c>
@@ -19186,7 +21317,7 @@
       </c>
     </row>
     <row r="37" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="248"/>
+      <c r="B37" s="247"/>
       <c r="C37" s="133" t="s">
         <v>100</v>
       </c>
@@ -19216,7 +21347,7 @@
       </c>
     </row>
     <row r="38" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="228" t="s">
+      <c r="B38" s="227" t="s">
         <v>92</v>
       </c>
       <c r="C38" s="71" t="s">
@@ -19240,7 +21371,7 @@
       <c r="K38" s="148"/>
     </row>
     <row r="39" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="229"/>
+      <c r="B39" s="228"/>
       <c r="C39" s="71" t="s">
         <v>90</v>
       </c>
@@ -19270,7 +21401,7 @@
       </c>
     </row>
     <row r="40" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="230"/>
+      <c r="B40" s="229"/>
       <c r="C40" s="71" t="s">
         <v>109</v>
       </c>
@@ -19354,36 +21485,36 @@
       <c r="C1"/>
     </row>
     <row r="2" spans="2:14" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="223" t="s">
+      <c r="B2" s="222" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="252" t="s">
+      <c r="C2" s="251" t="s">
         <v>1543</v>
       </c>
-      <c r="D2" s="253"/>
-      <c r="E2" s="252" t="s">
+      <c r="D2" s="252"/>
+      <c r="E2" s="251" t="s">
         <v>1544</v>
       </c>
-      <c r="F2" s="253"/>
-      <c r="G2" s="252" t="s">
+      <c r="F2" s="252"/>
+      <c r="G2" s="251" t="s">
         <v>1545</v>
       </c>
-      <c r="H2" s="253"/>
-      <c r="I2" s="252" t="s">
+      <c r="H2" s="252"/>
+      <c r="I2" s="251" t="s">
         <v>1546</v>
       </c>
-      <c r="J2" s="253"/>
-      <c r="K2" s="252" t="s">
+      <c r="J2" s="252"/>
+      <c r="K2" s="251" t="s">
         <v>1547</v>
       </c>
-      <c r="L2" s="253"/>
-      <c r="M2" s="252" t="s">
+      <c r="L2" s="252"/>
+      <c r="M2" s="251" t="s">
         <v>1548</v>
       </c>
-      <c r="N2" s="253"/>
+      <c r="N2" s="252"/>
     </row>
     <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="224"/>
+      <c r="B3" s="223"/>
       <c r="C3" s="10" t="s">
         <v>23</v>
       </c>
